--- a/data/trans_camb/P32C-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.211559222301523</v>
+        <v>-3.059083628808146</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.935823170067535</v>
+        <v>-4.131283082143936</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.590883852144025</v>
+        <v>-5.358300507788692</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.806265306295185</v>
+        <v>-3.610916052808968</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.473832199351654</v>
+        <v>-4.418405974598396</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.2018953951552986</v>
+        <v>-0.7894882902184671</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.56337320595489</v>
+        <v>-2.53743161216696</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.364916152627753</v>
+        <v>-3.297068675247954</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.288534350478446</v>
+        <v>-2.298220848151079</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.118712152293961</v>
+        <v>2.266019808064377</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.00968039239692</v>
+        <v>0.7749533797246001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.293414553893021</v>
+        <v>-1.308887829330422</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.09495153235033</v>
+        <v>1.109323827101723</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.90792235816641</v>
+        <v>12.45831397858331</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.148586857038057</v>
+        <v>1.054773708338412</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07969873286369418</v>
+        <v>0.03507872709954248</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.514654971988531</v>
+        <v>3.781330782221617</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-1</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>3.172710277102934</v>
+        <v>3.172710277102935</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2670310485246331</v>
@@ -780,23 +780,23 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7638788704741629</v>
+        <v>-0.7633496830944698</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9272558192852868</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.7676005208703057</v>
+        <v>-0.7576792692797424</v>
       </c>
       <c r="J8" s="6" t="n">
+        <v>-0.9266691756035104</v>
+      </c>
+      <c r="K8" s="6" t="n">
         <v>-1</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>-0.9235695264218036</v>
       </c>
     </row>
     <row r="9">
@@ -807,23 +807,23 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.624563184697666</v>
+        <v>1.902761827836705</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9318776386144787</v>
+        <v>1.05520971216404</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>1.088840519862518</v>
+        <v>0.9754991365081548</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3964707173941057</v>
+        <v>0.4842661606897898</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.648879693850527</v>
+        <v>2.86178378444505</v>
       </c>
     </row>
     <row r="10">
@@ -873,31 +873,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.303531208652831</v>
+        <v>-2.388705310906347</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.169805832477934</v>
+        <v>-2.013063245746443</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.106552449395752</v>
+        <v>-3.859006958038032</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.920423035174853</v>
+        <v>-4.519027819602425</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.855624782033981</v>
+        <v>-3.255882039118624</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.636652363545671</v>
+        <v>-3.923539919952891</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.260627636504149</v>
+        <v>-2.272312438983421</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.832225579230414</v>
+        <v>-1.901904048788926</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.13584789309185</v>
+        <v>-3.266967674054161</v>
       </c>
     </row>
     <row r="12">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.580194997369421</v>
+        <v>1.450745149357973</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.841246933126806</v>
+        <v>1.812825178726585</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.117708674596726</v>
+        <v>-1.062346720633015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4667060125406841</v>
+        <v>-0.4607424939990784</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.046732935299215</v>
+        <v>1.797261155143256</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7511683695441997</v>
+        <v>0.7356070622350011</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5740429115000454</v>
+        <v>0.3806861038809217</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.277519082856494</v>
+        <v>1.147649806049429</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.6999253360511074</v>
+        <v>-0.8114143443563194</v>
       </c>
     </row>
     <row r="13">
@@ -967,7 +967,7 @@
         <v>-0.1484915509548067</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.8945361198698876</v>
+        <v>-0.8945361198698878</v>
       </c>
     </row>
     <row r="14">
@@ -978,22 +978,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7343885085583831</v>
+        <v>-0.7501418659171648</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.684525850762695</v>
+        <v>-0.6953828155600534</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
-      <c r="G14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.784142510367119</v>
+        <v>-0.7856217447058704</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6681331482621223</v>
+        <v>-0.6580976534650321</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>-1</v>
@@ -1007,25 +1005,23 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.679408617881683</v>
+        <v>1.32490024101317</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.67596775635994</v>
+        <v>1.580597607910069</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
-      <c r="G15" s="6" t="n">
-        <v>4.967260506650575</v>
-      </c>
+      <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>0.5215941815300531</v>
+        <v>0.3708493126539927</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.045997975968782</v>
+        <v>0.9869200556007419</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1936521128755268</v>
+        <v>-0.2220521527902048</v>
       </c>
     </row>
     <row r="16">
@@ -1046,7 +1042,7 @@
         <v>0.3156238596598316</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3890477517427488</v>
+        <v>0.3890477517427486</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.4556662472029785</v>
@@ -1055,7 +1051,7 @@
         <v>-0.4556662472029785</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2993524816012946</v>
+        <v>0.2993524816012944</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.9938166204102403</v>
@@ -1075,31 +1071,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3014145387315227</v>
+        <v>0.2345581866876207</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9853351550980025</v>
+        <v>-0.8483233985393692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9416614127973616</v>
+        <v>-0.8322680792293949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.275465914261305</v>
+        <v>-2.268593745099662</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.291396416191944</v>
+        <v>-2.301525248237632</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.9114817739662459</v>
+        <v>-1.068957835479923</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.01650963074566716</v>
+        <v>-0.06207705073022157</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8162337621042012</v>
+        <v>-0.7366295451512478</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.5456654031211833</v>
+        <v>-0.5675974624655115</v>
       </c>
     </row>
     <row r="18">
@@ -1110,13 +1106,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.99996581212238</v>
+        <v>3.619455158444073</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.740112161006931</v>
+        <v>1.937809445918111</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.211392745340611</v>
+        <v>2.275243510316044</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
@@ -1125,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.724313693746279</v>
+        <v>1.864486675311798</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.174453784330846</v>
+        <v>2.174039358736826</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.007714319036153</v>
+        <v>1.002703670170705</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.810730080569573</v>
+        <v>1.633789093690852</v>
       </c>
     </row>
     <row r="19">
@@ -1151,7 +1147,7 @@
         <v>0.4391835343189163</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.541351236289168</v>
+        <v>0.5413512362891678</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-1</v>
@@ -1160,7 +1156,7 @@
         <v>-1</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6569555753554568</v>
+        <v>0.6569555753554563</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.590864790013161</v>
@@ -1180,7 +1176,7 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08704857307736084</v>
+        <v>-0.1291567215515178</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
@@ -1188,11 +1184,13 @@
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.2155355186482373</v>
-      </c>
-      <c r="J20" s="6" t="inlineStr"/>
+        <v>-0.3320000935290114</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.7977522434423321</v>
+      </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7296926084643643</v>
+        <v>-0.702922985528588</v>
       </c>
     </row>
     <row r="21">
@@ -1203,7 +1201,7 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>20.11737307051651</v>
+        <v>14.49706466752189</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
@@ -1211,11 +1209,11 @@
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>10.47586390823688</v>
+        <v>9.434086645295601</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
       <c r="K21" s="6" t="n">
-        <v>8.207658968712895</v>
+        <v>6.866165295095533</v>
       </c>
     </row>
     <row r="22">
@@ -1236,7 +1234,7 @@
         <v>-0.1164080556707284</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.06950706560978157</v>
+        <v>-0.06950706560978175</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.6977079263433901</v>
@@ -1254,7 +1252,7 @@
         <v>0.09303674681051446</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.3355972837248203</v>
+        <v>-0.3355972837248202</v>
       </c>
     </row>
     <row r="23">
@@ -1265,31 +1263,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.111548922378975</v>
+        <v>-0.98241249741188</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.176927595880088</v>
+        <v>-2.355827514554927</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.996206091649458</v>
+        <v>-2.387954640037431</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.852214097639246</v>
+        <v>-3.473641263099259</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.69573328209485</v>
+        <v>-1.695441457463973</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.511379383094468</v>
+        <v>-4.135281858597723</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.024644989320776</v>
+        <v>-1.123565294161759</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.54354796939376</v>
+        <v>-1.52461981267197</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.89972470703564</v>
+        <v>-1.791137123271737</v>
       </c>
     </row>
     <row r="24">
@@ -1300,31 +1298,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.366473707153077</v>
+        <v>3.828483202885619</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.340259979679235</v>
+        <v>1.317522356655605</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.59349936424847</v>
+        <v>1.530260235548255</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.129850812210243</v>
+        <v>2.44340608729769</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.196039608971266</v>
+        <v>1.979551870495729</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.33560969027384</v>
+        <v>1.241707963894025</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6401311138138951</v>
+        <v>0.7764395544071189</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1339,7 @@
         <v>-0.09619711343180555</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.05743914402014572</v>
+        <v>-0.05743914402014585</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-1</v>
@@ -1359,7 +1357,7 @@
         <v>0.08878404232715904</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3202571506910936</v>
+        <v>-0.3202571506910935</v>
       </c>
     </row>
     <row r="26">
@@ -1370,21 +1368,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.68689093735255</v>
-      </c>
-      <c r="D26" s="6" t="inlineStr"/>
-      <c r="E26" s="6" t="inlineStr"/>
+        <v>-0.6351416198426607</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.6888848074563897</v>
+        <v>-0.6916603053071514</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7912624742373017</v>
+        <v>-0.8255763609470627</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9282179635242482</v>
       </c>
     </row>
     <row r="27">
@@ -1395,21 +1397,23 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10.52015377049458</v>
-      </c>
-      <c r="D27" s="6" t="inlineStr"/>
+        <v>9.177236584393558</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>3.685149985345914</v>
+      </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>6.346809265035901</v>
+        <v>4.43954051463445</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4.189775967163776</v>
+        <v>3.052201870287769</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.900085624172248</v>
+        <v>2.748447599749457</v>
       </c>
     </row>
     <row r="28">
@@ -1459,29 +1463,29 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.915025908361769</v>
+        <v>-6.008342126518946</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.047977588736186</v>
+        <v>-4.213437641290032</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.30904645063608</v>
+        <v>-4.521240754779275</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="5" t="inlineStr"/>
       <c r="H29" s="5" t="n">
-        <v>0.4629960229519782</v>
+        <v>0.4149033813571815</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.687625128787995</v>
+        <v>-3.488502087562717</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.00423480168717</v>
+        <v>-2.972763763044536</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.673080946921687</v>
+        <v>-2.72294632011504</v>
       </c>
     </row>
     <row r="30">
@@ -1492,29 +1496,29 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.05340810703709384</v>
+        <v>0.1607242026527353</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.52931364228549</v>
+        <v>2.491957801841244</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.678338103360931</v>
+        <v>1.576088658974375</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.573206362892077</v>
+        <v>6.242037976916302</v>
       </c>
       <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="5" t="n">
-        <v>4.090711681616739</v>
+        <v>3.734048313329288</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7102354252112414</v>
+        <v>0.9178478548053725</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.500766338199169</v>
+        <v>1.848501432968828</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.911114014653736</v>
+        <v>1.63348377532786</v>
       </c>
     </row>
     <row r="31">
@@ -1531,7 +1535,7 @@
         <v>-0.1937005027240631</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3128280636194788</v>
+        <v>-0.3128280636194789</v>
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
@@ -1565,22 +1569,22 @@
         <v>-1</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7602052446571936</v>
+        <v>-0.7753865962914714</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7853370567126644</v>
+        <v>-0.7723681622978191</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.8821787680672178</v>
+        <v>-0.8810337689810276</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.747094701515837</v>
+        <v>-0.7646652396471968</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6683544486043957</v>
+        <v>-0.6996832278372318</v>
       </c>
     </row>
     <row r="33">
@@ -1591,25 +1595,25 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3936702357472362</v>
+        <v>0.5822870192054662</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.579020927172608</v>
+        <v>1.61874394951452</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.37040877302766</v>
+        <v>1.08349710720182</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>0.7841428157382249</v>
+        <v>1.110431586063063</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.345841366789386</v>
+        <v>2.128154388259615</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.923604098352848</v>
+        <v>1.619701724420324</v>
       </c>
     </row>
     <row r="34">
@@ -1659,13 +1663,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.590417605531725</v>
+        <v>-0.5758268025689217</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.654276051290886</v>
+        <v>-0.6048350202255838</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.009525904211168</v>
+        <v>-1.047617318889337</v>
       </c>
       <c r="F35" s="5" t="inlineStr"/>
       <c r="G35" s="5" t="inlineStr"/>
@@ -1673,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.4850979449103986</v>
+        <v>-0.4997016722668599</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.9658315561801245</v>
+        <v>-0.6741148566657541</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.057464176693256</v>
+        <v>-1.020955846876546</v>
       </c>
     </row>
     <row r="36">
@@ -1690,27 +1694,27 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.650618784514741</v>
+        <v>4.655072594546128</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.576902938315046</v>
+        <v>4.061606126696375</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.539702224511216</v>
+        <v>2.544097514043662</v>
       </c>
       <c r="F36" s="5" t="inlineStr"/>
       <c r="G36" s="5" t="inlineStr"/>
       <c r="H36" s="5" t="n">
-        <v>3.222307853091856</v>
+        <v>3.886972453406042</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.887895441917071</v>
+        <v>3.063132308627044</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.614788205275437</v>
+        <v>2.546638497454381</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.846198644416918</v>
+        <v>2.009614439480802</v>
       </c>
     </row>
     <row r="37">
@@ -1798,7 +1802,7 @@
         <v>-1.684259738641657</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-1.38844571287567</v>
+        <v>-1.388445712875669</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0</v>
@@ -1816,7 +1820,7 @@
         <v>-1.562796823111483</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.903447184270758</v>
+        <v>-0.9034471842707583</v>
       </c>
     </row>
     <row r="41">
@@ -1827,13 +1831,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.362996437854637</v>
+        <v>-9.830136464519908</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.406727726468755</v>
+        <v>-7.414713363477242</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.823193461699518</v>
+        <v>-7.869980220723146</v>
       </c>
       <c r="F41" s="5" t="inlineStr"/>
       <c r="G41" s="5" t="inlineStr"/>
@@ -1841,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-7.863678572399205</v>
+        <v>-8.320539535975586</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-6.032835398997745</v>
+        <v>-6.28324246562882</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-6.360290566775648</v>
+        <v>-5.306805294151292</v>
       </c>
     </row>
     <row r="42">
@@ -1858,27 +1862,27 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-1.084843407649696</v>
+        <v>-1.04665034586808</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.980180026403224</v>
+        <v>1.994488368805442</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.206641813052222</v>
+        <v>2.205056733528146</v>
       </c>
       <c r="F42" s="5" t="inlineStr"/>
       <c r="G42" s="5" t="inlineStr"/>
       <c r="H42" s="5" t="n">
-        <v>7.806785527942155</v>
+        <v>7.354447664209919</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0</v>
+        <v>-0.9062680466919899</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.346509087144192</v>
+        <v>1.646846815945508</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.851945659026611</v>
+        <v>2.438122373149141</v>
       </c>
     </row>
     <row r="43">
@@ -1895,7 +1899,7 @@
         <v>-0.4653756719228759</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.3836396736996549</v>
+        <v>-0.3836396736996548</v>
       </c>
       <c r="F43" s="6" t="inlineStr"/>
       <c r="G43" s="6" t="inlineStr"/>
@@ -1911,7 +1915,7 @@
         <v>-0.5293829882944953</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.3060343885414871</v>
+        <v>-0.3060343885414873</v>
       </c>
     </row>
     <row r="44">
@@ -1923,13 +1927,17 @@
       </c>
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="inlineStr"/>
-      <c r="E44" s="6" t="inlineStr"/>
+      <c r="E44" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="inlineStr"/>
       <c r="J44" s="6" t="inlineStr"/>
-      <c r="K44" s="6" t="inlineStr"/>
+      <c r="K44" s="6" t="n">
+        <v>-0.881942358213842</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -1940,7 +1948,9 @@
       </c>
       <c r="C45" s="6" t="inlineStr"/>
       <c r="D45" s="6" t="inlineStr"/>
-      <c r="E45" s="6" t="inlineStr"/>
+      <c r="E45" s="6" t="n">
+        <v>3.421599624379569</v>
+      </c>
       <c r="F45" s="6" t="inlineStr"/>
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="inlineStr"/>
@@ -1966,7 +1976,7 @@
         <v>-0.2624315852143378</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.6925258405170291</v>
+        <v>-0.6925258405170294</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.6224639335560446</v>
@@ -1995,31 +2005,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.7919098307752627</v>
+        <v>-0.7987914314226744</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.137781668381769</v>
+        <v>-1.0549947576733</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.561438161420521</v>
+        <v>-1.484053159641973</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.538102195668321</v>
+        <v>-1.497589316134516</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.305387215501302</v>
+        <v>-1.38169184209469</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.7125076215794478</v>
+        <v>-0.6005016085573891</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.7742132378682112</v>
+        <v>-0.8524003258136197</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.9591504698496331</v>
+        <v>-1.007811054414967</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.017857563832179</v>
+        <v>-1.061989225475125</v>
       </c>
     </row>
     <row r="48">
@@ -2030,31 +2040,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.9315533200221718</v>
+        <v>1.107180834374682</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.5127849282766767</v>
+        <v>0.6619770886877404</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.03609755696156174</v>
+        <v>0.1732107648644049</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.0128215125544342</v>
+        <v>0.0152507443209115</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.2937187928805597</v>
+        <v>0.2862428700146256</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.621890292964308</v>
+        <v>1.560382118501992</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.5284046864265234</v>
+        <v>0.4505220358791368</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.2925995501025294</v>
+        <v>0.2482985992079942</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.2785470690643696</v>
+        <v>0.3054668984104898</v>
       </c>
     </row>
     <row r="49">
@@ -2071,7 +2081,7 @@
         <v>-0.1399085628509789</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.3692021103510455</v>
+        <v>-0.3692021103510456</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.6807230235670996</v>
@@ -2100,31 +2110,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3324030326202347</v>
+        <v>-0.3610461478788549</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4860115628541744</v>
+        <v>-0.4709512883834293</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6596913381860458</v>
+        <v>-0.6379188108947157</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.9349545146906074</v>
+        <v>-1</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.8644195752783466</v>
+        <v>-0.8580898915778017</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5785512770760051</v>
+        <v>-0.5604662853128585</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4153889102817447</v>
+        <v>-0.4392578807727551</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4983109229777724</v>
+        <v>-0.5084518801521393</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5135057029386554</v>
+        <v>-0.5395339681945857</v>
       </c>
     </row>
     <row r="51">
@@ -2135,31 +2145,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6356595420249735</v>
+        <v>0.7394413733598499</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3493648776071345</v>
+        <v>0.4249703980381495</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.06838443432362111</v>
+        <v>0.1192902570761392</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4942680955437116</v>
+        <v>0.3296846138147117</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.8804556193222486</v>
+        <v>0.643531822284846</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>3.846427560139432</v>
+        <v>3.141584877726153</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4099941886665271</v>
+        <v>0.3729012918452119</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2480405960747986</v>
+        <v>0.2408706877458691</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2433555634022638</v>
+        <v>0.2334689465236724</v>
       </c>
     </row>
     <row r="52">
